--- a/scripts/doe_results.xlsx
+++ b/scripts/doe_results.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Chris/cse6242/cse6242-project/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36430CD-B322-B24C-B0E6-1EC34DE48F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52633499-C060-D24D-8A60-441C31DC5848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="560" yWindow="5040" windowWidth="28800" windowHeight="16840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pivot" sheetId="3" r:id="rId1"/>
     <sheet name="doe_results" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">doe_results!$A$1:$AX$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">doe_results!$A$1:$AY$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="103">
   <si>
     <t>index</t>
   </si>
@@ -330,6 +330,24 @@
   <si>
     <t>variation</t>
   </si>
+  <si>
+    <t>No 3pt shooters overlap with any other groups</t>
+  </si>
+  <si>
+    <t>No passers overlap with any of the centers</t>
+  </si>
+  <si>
+    <t>Passers always overlap with all-stars</t>
+  </si>
+  <si>
+    <t>Only player causing overlap from last group is Dirk</t>
+  </si>
+  <si>
+    <t>Makes more sense for Russell Westbrook to match with Chris Paul</t>
+  </si>
+  <si>
+    <t>Steve Nash should be different than Russell</t>
+  </si>
 </sst>
 </file>
 
@@ -471,7 +489,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -675,6 +693,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -836,7 +860,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -848,6 +872,7 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3775,10 +3800,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AX47"/>
+  <dimension ref="A1:AY55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3787,16 +3812,14 @@
     <col min="3" max="3" width="97.33203125" customWidth="1"/>
     <col min="6" max="11" width="10.83203125" style="3"/>
     <col min="12" max="20" width="10.83203125" style="4" customWidth="1"/>
-    <col min="21" max="27" width="10.83203125" style="5" hidden="1" customWidth="1"/>
-    <col min="28" max="29" width="10.83203125" style="5" customWidth="1"/>
-    <col min="30" max="41" width="10.83203125" style="3" hidden="1" customWidth="1"/>
-    <col min="42" max="43" width="10.83203125" style="3" customWidth="1"/>
+    <col min="21" max="29" width="10.83203125" style="5" customWidth="1"/>
+    <col min="30" max="43" width="10.83203125" style="3" customWidth="1"/>
     <col min="44" max="48" width="10.83203125" style="6" customWidth="1"/>
     <col min="49" max="49" width="10.83203125" style="6"/>
     <col min="50" max="50" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3947,8 +3970,9 @@
       <c r="AX1" s="5" t="s">
         <v>92</v>
       </c>
+      <c r="AY1" s="6"/>
     </row>
-    <row r="2" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4111,7 +4135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4274,7 +4298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4437,7 +4461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4600,7 +4624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4763,7 +4787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4926,7 +4950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5089,7 +5113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5252,7 +5276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5415,7 +5439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5578,7 +5602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5741,7 +5765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5904,7 +5928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -6067,7 +6091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -6230,7 +6254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -6393,7 +6417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -6556,7 +6580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -6719,7 +6743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -6882,7 +6906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -7045,7 +7069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -7208,7 +7232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -7371,7 +7395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -7534,7 +7558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -7696,8 +7720,11 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
+      <c r="AY24">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -7860,7 +7887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -8023,7 +8050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -8186,7 +8213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -8349,7 +8376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -8512,7 +8539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -8675,7 +8702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -8838,7 +8865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -9001,7 +9028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -9164,7 +9191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -9327,7 +9354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -9490,7 +9517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -9653,7 +9680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -9816,7 +9843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -9979,170 +10006,173 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A39">
+    <row r="39" spans="1:51" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="9">
         <v>37</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="9">
         <v>11</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="9">
         <v>7</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="9">
         <v>4141.1879603570796</v>
       </c>
-      <c r="F39" s="3">
-        <v>4</v>
-      </c>
-      <c r="G39" s="3">
-        <v>4</v>
-      </c>
-      <c r="H39" s="3">
-        <v>4</v>
-      </c>
-      <c r="I39" s="3">
-        <v>4</v>
-      </c>
-      <c r="J39" s="3">
+      <c r="F39" s="9">
+        <v>4</v>
+      </c>
+      <c r="G39" s="9">
+        <v>4</v>
+      </c>
+      <c r="H39" s="9">
+        <v>4</v>
+      </c>
+      <c r="I39" s="9">
+        <v>4</v>
+      </c>
+      <c r="J39" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K39" s="3" t="str">
+      <c r="K39" s="9" t="str">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L39" s="4">
-        <v>6</v>
-      </c>
-      <c r="M39" s="4">
-        <v>3</v>
-      </c>
-      <c r="N39" s="4">
-        <v>3</v>
-      </c>
-      <c r="O39" s="4">
-        <v>6</v>
-      </c>
-      <c r="P39" s="4">
-        <v>6</v>
-      </c>
-      <c r="Q39" s="4">
-        <v>3</v>
-      </c>
-      <c r="R39" s="4">
-        <v>3</v>
-      </c>
-      <c r="S39" s="4" t="str">
+      <c r="L39" s="9">
+        <v>6</v>
+      </c>
+      <c r="M39" s="9">
+        <v>3</v>
+      </c>
+      <c r="N39" s="9">
+        <v>3</v>
+      </c>
+      <c r="O39" s="9">
+        <v>6</v>
+      </c>
+      <c r="P39" s="9">
+        <v>6</v>
+      </c>
+      <c r="Q39" s="9">
+        <v>3</v>
+      </c>
+      <c r="R39" s="9">
+        <v>3</v>
+      </c>
+      <c r="S39" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="T39" s="4" t="str">
+      <c r="T39" s="9" t="str">
         <f t="shared" si="3"/>
         <v>63</v>
       </c>
-      <c r="U39" s="5">
-        <v>5</v>
-      </c>
-      <c r="V39" s="5">
-        <v>5</v>
-      </c>
-      <c r="W39" s="5">
-        <v>0</v>
-      </c>
-      <c r="X39" s="5">
-        <v>5</v>
-      </c>
-      <c r="Y39" s="5">
-        <v>5</v>
-      </c>
-      <c r="Z39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="5">
-        <v>5</v>
-      </c>
-      <c r="AB39" s="5" t="str">
+      <c r="U39" s="9">
+        <v>5</v>
+      </c>
+      <c r="V39" s="9">
+        <v>5</v>
+      </c>
+      <c r="W39" s="9">
+        <v>0</v>
+      </c>
+      <c r="X39" s="9">
+        <v>5</v>
+      </c>
+      <c r="Y39" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z39" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="9">
+        <v>5</v>
+      </c>
+      <c r="AB39" s="9" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AC39" s="5" t="str">
+      <c r="AC39" s="9" t="str">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="AD39" s="3">
-        <v>6</v>
-      </c>
-      <c r="AE39" s="3">
-        <v>6</v>
-      </c>
-      <c r="AF39" s="3">
-        <v>6</v>
-      </c>
-      <c r="AG39" s="3">
-        <v>6</v>
-      </c>
-      <c r="AH39" s="3">
-        <v>6</v>
-      </c>
-      <c r="AI39" s="3">
-        <v>5</v>
-      </c>
-      <c r="AJ39" s="3">
-        <v>6</v>
-      </c>
-      <c r="AK39" s="3">
-        <v>6</v>
-      </c>
-      <c r="AL39" s="3">
-        <v>6</v>
-      </c>
-      <c r="AM39" s="3">
-        <v>6</v>
-      </c>
-      <c r="AN39" s="3">
-        <v>6</v>
-      </c>
-      <c r="AO39" s="3">
-        <v>6</v>
-      </c>
-      <c r="AP39" s="3" t="str">
+      <c r="AD39" s="9">
+        <v>6</v>
+      </c>
+      <c r="AE39" s="9">
+        <v>6</v>
+      </c>
+      <c r="AF39" s="9">
+        <v>6</v>
+      </c>
+      <c r="AG39" s="9">
+        <v>6</v>
+      </c>
+      <c r="AH39" s="9">
+        <v>6</v>
+      </c>
+      <c r="AI39" s="9">
+        <v>5</v>
+      </c>
+      <c r="AJ39" s="9">
+        <v>6</v>
+      </c>
+      <c r="AK39" s="9">
+        <v>6</v>
+      </c>
+      <c r="AL39" s="9">
+        <v>6</v>
+      </c>
+      <c r="AM39" s="9">
+        <v>6</v>
+      </c>
+      <c r="AN39" s="9">
+        <v>6</v>
+      </c>
+      <c r="AO39" s="9">
+        <v>6</v>
+      </c>
+      <c r="AP39" s="9" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AQ39" s="3" t="str">
+      <c r="AQ39" s="9" t="str">
         <f t="shared" si="7"/>
         <v>56</v>
       </c>
-      <c r="AR39" s="6">
-        <v>2</v>
-      </c>
-      <c r="AS39" s="6">
-        <v>5</v>
-      </c>
-      <c r="AT39" s="6">
-        <v>5</v>
-      </c>
-      <c r="AU39" s="6">
-        <v>5</v>
-      </c>
-      <c r="AV39" s="6" t="str">
+      <c r="AR39" s="9">
+        <v>2</v>
+      </c>
+      <c r="AS39" s="9">
+        <v>5</v>
+      </c>
+      <c r="AT39" s="9">
+        <v>5</v>
+      </c>
+      <c r="AU39" s="9">
+        <v>5</v>
+      </c>
+      <c r="AV39" s="9" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AW39" s="6" t="str">
+      <c r="AW39" s="9" t="str">
         <f t="shared" si="9"/>
         <v>25</v>
       </c>
-      <c r="AX39" s="5">
+      <c r="AX39" s="9">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
+      <c r="AY39" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="40" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -10305,7 +10335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -10468,7 +10498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -10631,7 +10661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -10794,7 +10824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -10957,7 +10987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -11120,7 +11150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -11283,7 +11313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -11446,23 +11476,45 @@
         <v>0</v>
       </c>
     </row>
+    <row r="50" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J50" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J51" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J52" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J53" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J54" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J55" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AX47" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="10"/>
-        <filter val="11"/>
-        <filter val="12"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="10">
-      <filters>
-        <filter val="0"/>
-        <filter val="4"/>
-        <filter val="5"/>
-      </filters>
+  <autoFilter ref="A1:AY47" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="50">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/scripts/doe_results.xlsx
+++ b/scripts/doe_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Chris/cse6242/cse6242-project/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52633499-C060-D24D-8A60-441C31DC5848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A9C575-5169-3A49-B8E2-C76A00A8002C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="5040" windowWidth="28800" windowHeight="16840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="560" windowWidth="28800" windowHeight="16840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pivot" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -3256,7 +3256,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F1FFDB30-F35C-4DE3-8317-D8A5BF5DFE6B}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F1FFDB30-F35C-4DE3-8317-D8A5BF5DFE6B}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:C10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="45">
     <pivotField showAll="0"/>
@@ -3802,7 +3802,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AY55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
